--- a/pred_ohlcv/54_21/2019-10-19 PAY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 PAY ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-52597.73190000001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-52582.73190000001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-52582.73190000001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-52582.73190000001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-52582.73190000001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-52572.73190000001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-52572.73190000001</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-51572.73190000001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-51572.73190000001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-61746.39340000001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-61746.39340000001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-76099.81040000002</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-136185.9473</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-204109.7208</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-198748.7208</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-198748.7208</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-198748.7208</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-198748.7208</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-198748.7208</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-198748.7208</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-198748.7208</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-198748.7208</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-198748.7208</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-198748.7208</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-198748.7208</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-184348.7208</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-173368.7208</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-173368.7208</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-169397.5574</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-169397.5574</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-169710.5115000001</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-170711.8898000001</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-170701.7798000001</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-158636.9849000001</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-158636.9849000001</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-158626.9849000001</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-140903.4999000001</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-140783.4999000001</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-140783.4999000001</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-140783.4999000001</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-140783.4999000001</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-142327.2784</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-167083.1644</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-19 PAY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 PAY ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-51572.73190000001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-61746.39340000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-198748.7208</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-198748.7208</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-198748.7208</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-198748.7208</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-198748.7208</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-198748.7208</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-198748.7208</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-198748.7208</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-198748.7208</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-198748.7208</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-198748.7208</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-184348.7208</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-173368.7208</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-173368.7208</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-173368.7208</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-169397.5574</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-169397.5574</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-169710.5115000001</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-170711.8898000001</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-170701.7798000001</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-158636.9849000001</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-158636.9849000001</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-158626.9849000001</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-140913.4999000001</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-140903.4999000001</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-140783.4999000001</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-140783.4999000001</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-140783.4999000001</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-140783.4999000001</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-142327.2784</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
